--- a/docs/编程机地面站通信协议Rev0.2.xlsx
+++ b/docs/编程机地面站通信协议Rev0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="599"/>
+    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="240">
   <si>
     <t>发送（上传）</t>
   </si>
@@ -767,6 +767,30 @@
   </si>
   <si>
     <t>航点（时间信息）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: 红色 0-255
+2: 绿色
+3: 蓝色
+4: 
+5: 
+6: 
+7: </t>
+  </si>
+  <si>
+    <t>航点（LED颜色信息）</t>
+  </si>
+  <si>
+    <t>1:
+2:
+3: 0.5
+4: 
+5: Latitude   纬度 （坐标x）
+6: Longitude  经度 （坐标y）
+7: Altitude   高度 （坐标z）</t>
+  </si>
+  <si>
+    <t>航点（降落）</t>
   </si>
   <si>
     <t>...</t>
@@ -2076,89 +2100,89 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2497,10 +2521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV180"/>
+  <dimension ref="A1:AV182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2610,32 +2634,32 @@
       <c r="J5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE5" s="67" t="s">
+      <c r="AE5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="67"/>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="67"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
     </row>
     <row r="6" ht="124" customHeight="1" spans="1:48">
       <c r="A6" s="8" t="s">
@@ -2662,47 +2686,47 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="42" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="45" t="s">
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="66"/>
     </row>
     <row r="7" ht="200" customHeight="1" spans="1:48">
       <c r="A7" s="12" t="s">
@@ -2729,30 +2753,30 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="66"/>
     </row>
     <row r="8" ht="127" customHeight="1" spans="1:12">
       <c r="A8" s="6" t="s">
@@ -2779,7 +2803,7 @@
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="42" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="33" t="s">
@@ -2811,7 +2835,7 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="42" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="33" t="s">
@@ -2843,7 +2867,7 @@
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="42" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="9" t="s">
@@ -2875,7 +2899,7 @@
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="42" t="s">
         <v>56</v>
       </c>
       <c r="L11" s="9" t="s">
@@ -2907,7 +2931,7 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="42" t="s">
         <v>60</v>
       </c>
       <c r="L12" s="33" t="s">
@@ -2933,18 +2957,18 @@
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="48" t="s">
         <v>64</v>
       </c>
       <c r="L13" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
     </row>
     <row r="14" ht="70" customHeight="1" spans="1:16">
       <c r="A14" s="8" t="s">
@@ -2963,18 +2987,18 @@
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="48" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="50" t="s">
+      <c r="M14" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" ht="99" customHeight="1" spans="1:16">
       <c r="A15" s="8" t="s">
@@ -2993,18 +3017,18 @@
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="48" t="s">
         <v>75</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:11">
       <c r="A16" s="17"/>
@@ -3096,10 +3120,10 @@
       <c r="J21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3126,7 +3150,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="52" t="s">
+      <c r="K22" s="51" t="s">
         <v>29</v>
       </c>
       <c r="L22" s="33" t="s">
@@ -3158,18 +3182,18 @@
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="42" t="s">
         <v>81</v>
       </c>
       <c r="L23" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="M23" s="50" t="s">
+      <c r="M23" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" ht="168" customHeight="1" spans="1:16">
       <c r="A24" s="8" t="s">
@@ -3192,20 +3216,20 @@
       <c r="H24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="53"/>
+      <c r="I24" s="52"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="49" t="s">
+      <c r="K24" s="48" t="s">
         <v>86</v>
       </c>
       <c r="L24" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="M24" s="50" t="s">
+      <c r="M24" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" customFormat="1" ht="188" customHeight="1" spans="1:16">
       <c r="A25" s="8" t="s">
@@ -3224,18 +3248,18 @@
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="49" t="s">
+      <c r="K25" s="48" t="s">
         <v>88</v>
       </c>
       <c r="L25" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="50" t="s">
+      <c r="M25" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" customFormat="1" ht="27" customHeight="1" spans="1:12">
       <c r="A26" s="23"/>
@@ -3246,7 +3270,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="23"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="23"/>
       <c r="K26" s="37"/>
       <c r="L26" s="3"/>
@@ -3260,7 +3284,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="23"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="23"/>
       <c r="K27" s="37"/>
       <c r="L27" s="3"/>
@@ -3296,10 +3320,10 @@
       <c r="H29" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I29" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="56"/>
+      <c r="J29" s="55"/>
       <c r="K29" s="37"/>
       <c r="L29" s="3"/>
     </row>
@@ -3346,11 +3370,11 @@
       <c r="H31" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58" t="s">
+      <c r="J31" s="56"/>
+      <c r="K31" s="57" t="s">
         <v>101</v>
       </c>
       <c r="Q31"/>
@@ -3377,11 +3401,11 @@
       <c r="H32" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="58"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -3406,11 +3430,11 @@
       <c r="H33" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="58"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -3435,11 +3459,11 @@
       <c r="H34" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="52" t="s">
+      <c r="I34" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -3464,11 +3488,11 @@
       <c r="H35" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="58"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -3492,11 +3516,11 @@
       <c r="H36" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="52" t="s">
+      <c r="I36" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="58"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -3506,26 +3530,26 @@
       <c r="W36"/>
       <c r="X36"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="42" customHeight="1" spans="1:24">
+    <row r="37" s="1" customFormat="1" ht="111" customHeight="1" spans="1:24">
       <c r="A37" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
-        <v>118</v>
+      <c r="G37" s="9">
+        <v>31006</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="58"/>
+      <c r="I37" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -3535,18 +3559,26 @@
       <c r="W37"/>
       <c r="X37"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="36" customHeight="1" spans="1:24">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="58"/>
+    <row r="38" s="1" customFormat="1" ht="111" customHeight="1" spans="1:24">
+      <c r="A38" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>23</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -3556,252 +3588,248 @@
       <c r="W38"/>
       <c r="X38"/>
     </row>
-    <row r="39" ht="40" customHeight="1" spans="1:12">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="23"/>
-      <c r="L39"/>
-    </row>
-    <row r="40" ht="27" customHeight="1" spans="1:13">
-      <c r="A40" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="3"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" ht="69" customHeight="1" spans="1:13">
-      <c r="A41" s="27" t="s">
+    <row r="39" s="1" customFormat="1" ht="42" customHeight="1" spans="1:24">
+      <c r="A39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="57"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="36" customHeight="1" spans="1:24">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="57"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+    </row>
+    <row r="41" ht="40" customHeight="1" spans="1:12">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="23"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" ht="27" customHeight="1" spans="1:13">
+      <c r="A42" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="3"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" ht="69" customHeight="1" spans="1:13">
+      <c r="A43" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H43" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="55" t="s">
+      <c r="I43" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="J41" s="56"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-    </row>
-    <row r="42" ht="107" customHeight="1" spans="1:15">
-      <c r="A42" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="J42" s="57"/>
-      <c r="K42" s="60" t="s">
+      <c r="J43" s="55"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+    </row>
+    <row r="44" ht="107" customHeight="1" spans="1:15">
+      <c r="A44" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-    </row>
-    <row r="43" ht="109" customHeight="1" spans="1:18">
-      <c r="A43" s="8" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9">
+      <c r="H44" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="J44" s="56"/>
+      <c r="K44" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+    </row>
+    <row r="45" ht="109" customHeight="1" spans="1:18">
+      <c r="A45" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9">
         <v>24</v>
       </c>
-      <c r="H43" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="L43" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="M43" s="62"/>
-      <c r="N43" s="44" t="s">
+      <c r="H45" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-    </row>
-    <row r="44" ht="109" customHeight="1" spans="1:13">
-      <c r="A44" s="8" t="s">
+      <c r="I45" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="56"/>
+      <c r="K45" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="M45" s="61"/>
+      <c r="N45" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+    </row>
+    <row r="46" ht="109" customHeight="1" spans="1:13">
+      <c r="A46" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9">
         <v>16</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H46" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" ht="105" customHeight="1" spans="1:13">
-      <c r="A45" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30">
-        <v>23</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I45" s="63" t="s">
+      <c r="I46" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J45" s="64"/>
-      <c r="K45" s="44" t="s">
+      <c r="J46" s="9"/>
+      <c r="K46" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="L45" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="M45" s="62"/>
-    </row>
-    <row r="46" ht="105" customHeight="1" spans="1:13">
-      <c r="A46" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30">
-        <v>241</v>
-      </c>
-      <c r="H46" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="I46" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="J46" s="64"/>
-      <c r="K46" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
+      <c r="M46" s="3"/>
     </row>
     <row r="47" ht="105" customHeight="1" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="33">
-        <v>15</v>
-      </c>
-      <c r="H47" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I47" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="J47" s="66"/>
-      <c r="K47" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="L47" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="M47" s="50"/>
+        <v>137</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30">
+        <v>23</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="63"/>
+      <c r="K47" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="L47" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="M47" s="61"/>
     </row>
     <row r="48" ht="105" customHeight="1" spans="1:13">
       <c r="A48" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="33">
-        <v>31010</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I48" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="J48" s="66"/>
-      <c r="K48" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="L48" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M48" s="50"/>
-    </row>
-    <row r="49" ht="105" customHeight="1" spans="1:11">
+        <v>142</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30">
+        <v>241</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" s="63"/>
+      <c r="K48" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+    </row>
+    <row r="49" ht="105" customHeight="1" spans="1:13">
       <c r="A49" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -3809,85 +3837,127 @@
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="33">
-        <v>31011</v>
+        <v>15</v>
       </c>
       <c r="H49" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="65"/>
+      <c r="K49" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="L49" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="M49" s="49"/>
+    </row>
+    <row r="50" ht="105" customHeight="1" spans="1:13">
+      <c r="A50" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33">
+        <v>31010</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I50" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="I49" s="65" t="s">
+      <c r="J50" s="65"/>
+      <c r="K50" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="J49" s="66"/>
-      <c r="K49" s="61" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" ht="105" customHeight="1" spans="1:11">
-      <c r="A50" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9">
-        <v>31003</v>
-      </c>
-      <c r="H50" s="16" t="s">
+      <c r="L50" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="I50" s="52" t="s">
+      <c r="M50" s="49"/>
+    </row>
+    <row r="51" ht="105" customHeight="1" spans="1:11">
+      <c r="A51" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="J50" s="57"/>
-      <c r="K50" s="44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" ht="57" customHeight="1" spans="1:10">
-      <c r="A51" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="H51" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="J51" s="33"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="17" customHeight="1" spans="1:12">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="17" customHeight="1" spans="1:12">
-      <c r="A53" s="37"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="L53" s="18"/>
+      <c r="G51" s="33">
+        <v>31011</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="J51" s="65"/>
+      <c r="K51" s="60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" ht="105" customHeight="1" spans="1:11">
+      <c r="A52" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9">
+        <v>31003</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J52" s="56"/>
+      <c r="K52" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" ht="57" customHeight="1" spans="1:10">
+      <c r="A53" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J53" s="33"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="17" customHeight="1" spans="1:12">
-      <c r="A54" s="37"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
       <c r="L54" s="18"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="17" customHeight="1" spans="1:12">
@@ -3926,175 +3996,175 @@
       <c r="J60" s="18"/>
       <c r="L60" s="18"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="32" customHeight="1" spans="1:12">
-      <c r="A61" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
+    <row r="61" s="1" customFormat="1" ht="17" customHeight="1" spans="1:12">
+      <c r="A61" s="37"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
       <c r="L61" s="18"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A62" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="21"/>
+    <row r="62" s="1" customFormat="1" ht="17" customHeight="1" spans="1:12">
+      <c r="A62" s="37"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="L62" s="18"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A63" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
+    <row r="63" s="1" customFormat="1" ht="32" customHeight="1" spans="1:12">
+      <c r="A63" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="39"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
       <c r="L63" s="18"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A64" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" s="40" t="s">
+      <c r="A64" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
+      <c r="B64" s="21"/>
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
       <c r="L64" s="18"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
       <c r="L65" s="18"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A66" s="37"/>
+      <c r="A66" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
       <c r="L66" s="18"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A67" s="37"/>
-      <c r="B67" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
+      <c r="A67" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="L67" s="18"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A68" s="37"/>
-      <c r="B68" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="L68" s="18"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A69" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B69" s="21"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="L69" s="18"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A70" s="37"/>
+      <c r="B70" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
       <c r="L70" s="18"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A71" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
+      <c r="A71" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="21"/>
+      <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="L71" s="18"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A72" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
+      <c r="A72" s="37"/>
+      <c r="I72" s="18"/>
       <c r="J72" s="18"/>
       <c r="L72" s="18"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A73" s="37"/>
-      <c r="I73" s="18"/>
+      <c r="A73" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
       <c r="J73" s="18"/>
       <c r="L73" s="18"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A74" s="37"/>
-      <c r="I74" s="18"/>
+      <c r="A74" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
       <c r="J74" s="18"/>
       <c r="L74" s="18"/>
     </row>
@@ -4110,67 +4180,47 @@
       <c r="J76" s="18"/>
       <c r="L76" s="18"/>
     </row>
-    <row r="77" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A77" s="2"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="69"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="69"/>
-    </row>
-    <row r="78" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A78" s="2"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="69"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="69"/>
-      <c r="L78" s="69"/>
-    </row>
-    <row r="79" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="70"/>
-      <c r="M79" s="70"/>
-    </row>
-    <row r="80" ht="20" customHeight="1" spans="1:13">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
-      <c r="K80" s="70"/>
-      <c r="L80" s="70"/>
-      <c r="M80" s="70"/>
-    </row>
-    <row r="81" ht="30" customHeight="1" spans="1:13">
-      <c r="A81" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="B81" s="39"/>
+    <row r="77" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A77" s="37"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="L77" s="18"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A78" s="37"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="L78" s="18"/>
+    </row>
+    <row r="79" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A79" s="2"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+    </row>
+    <row r="80" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A80" s="2"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
+    </row>
+    <row r="81" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A81" s="70"/>
+      <c r="B81" s="70"/>
       <c r="C81" s="70"/>
       <c r="D81" s="70"/>
       <c r="E81" s="70"/>
@@ -4184,10 +4234,8 @@
       <c r="M81" s="70"/>
     </row>
     <row r="82" ht="20" customHeight="1" spans="1:13">
-      <c r="A82" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82" s="21"/>
+      <c r="A82" s="70"/>
+      <c r="B82" s="70"/>
       <c r="C82" s="70"/>
       <c r="D82" s="70"/>
       <c r="E82" s="70"/>
@@ -4200,11 +4248,11 @@
       <c r="L82" s="70"/>
       <c r="M82" s="70"/>
     </row>
-    <row r="83" ht="20" customHeight="1" spans="1:13">
-      <c r="A83" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" s="70"/>
+    <row r="83" ht="30" customHeight="1" spans="1:13">
+      <c r="A83" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="39"/>
       <c r="C83" s="70"/>
       <c r="D83" s="70"/>
       <c r="E83" s="70"/>
@@ -4218,8 +4266,10 @@
       <c r="M83" s="70"/>
     </row>
     <row r="84" ht="20" customHeight="1" spans="1:13">
-      <c r="A84" s="70"/>
-      <c r="B84" s="70"/>
+      <c r="A84" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="21"/>
       <c r="C84" s="70"/>
       <c r="D84" s="70"/>
       <c r="E84" s="70"/>
@@ -4233,16 +4283,16 @@
       <c r="M84" s="70"/>
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:13">
-      <c r="A85" s="70"/>
-      <c r="B85" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
+      <c r="A85" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
       <c r="I85" s="70"/>
       <c r="J85" s="70"/>
       <c r="K85" s="70"/>
@@ -4251,15 +4301,13 @@
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:13">
       <c r="A86" s="70"/>
-      <c r="B86" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="70"/>
+      <c r="H86" s="70"/>
       <c r="I86" s="70"/>
       <c r="J86" s="70"/>
       <c r="K86" s="70"/>
@@ -4268,15 +4316,15 @@
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:13">
       <c r="A87" s="70"/>
-      <c r="B87" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
+      <c r="B87" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
       <c r="I87" s="70"/>
       <c r="J87" s="70"/>
       <c r="K87" s="70"/>
@@ -4285,13 +4333,15 @@
     </row>
     <row r="88" ht="20" customHeight="1" spans="1:13">
       <c r="A88" s="70"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
+      <c r="B88" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
       <c r="I88" s="70"/>
       <c r="J88" s="70"/>
       <c r="K88" s="70"/>
@@ -4299,16 +4349,16 @@
       <c r="M88" s="70"/>
     </row>
     <row r="89" ht="20" customHeight="1" spans="1:13">
-      <c r="A89" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
       <c r="I89" s="70"/>
       <c r="J89" s="70"/>
       <c r="K89" s="70"/>
@@ -4317,22 +4367,24 @@
     </row>
     <row r="90" ht="20" customHeight="1" spans="1:13">
       <c r="A90" s="70"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="70"/>
-      <c r="H90" s="70"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
       <c r="I90" s="70"/>
       <c r="J90" s="70"/>
       <c r="K90" s="70"/>
       <c r="L90" s="70"/>
       <c r="M90" s="70"/>
     </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70"/>
+    <row r="91" ht="20" customHeight="1" spans="1:13">
+      <c r="A91" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" s="21"/>
       <c r="C91" s="70"/>
       <c r="D91" s="70"/>
       <c r="E91" s="70"/>
@@ -4345,7 +4397,7 @@
       <c r="L91" s="70"/>
       <c r="M91" s="70"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" ht="20" customHeight="1" spans="1:13">
       <c r="A92" s="70"/>
       <c r="B92" s="70"/>
       <c r="C92" s="70"/>
@@ -4405,11 +4457,9 @@
       <c r="L95" s="70"/>
       <c r="M95" s="70"/>
     </row>
-    <row r="96" ht="33" customHeight="1" spans="1:13">
-      <c r="A96" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="B96" s="72"/>
+    <row r="96" spans="1:13">
+      <c r="A96" s="70"/>
+      <c r="B96" s="70"/>
       <c r="C96" s="70"/>
       <c r="D96" s="70"/>
       <c r="E96" s="70"/>
@@ -4422,7 +4472,7 @@
       <c r="L96" s="70"/>
       <c r="M96" s="70"/>
     </row>
-    <row r="97" ht="21" customHeight="1" spans="1:13">
+    <row r="97" spans="1:13">
       <c r="A97" s="70"/>
       <c r="B97" s="70"/>
       <c r="C97" s="70"/>
@@ -4437,17 +4487,17 @@
       <c r="L97" s="70"/>
       <c r="M97" s="70"/>
     </row>
-    <row r="98" ht="21" customHeight="1" spans="1:13">
-      <c r="A98" s="70"/>
-      <c r="B98" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
+    <row r="98" ht="33" customHeight="1" spans="1:13">
+      <c r="A98" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="72"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
       <c r="I98" s="70"/>
       <c r="J98" s="70"/>
       <c r="K98" s="70"/>
@@ -4456,47 +4506,47 @@
     </row>
     <row r="99" ht="21" customHeight="1" spans="1:13">
       <c r="A99" s="70"/>
-      <c r="B99" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
       <c r="I99" s="70"/>
       <c r="J99" s="70"/>
       <c r="K99" s="70"/>
       <c r="L99" s="70"/>
       <c r="M99" s="70"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" ht="21" customHeight="1" spans="1:13">
       <c r="A100" s="70"/>
-      <c r="B100" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
+      <c r="B100" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" s="67"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
       <c r="I100" s="70"/>
       <c r="J100" s="70"/>
       <c r="K100" s="70"/>
       <c r="L100" s="70"/>
       <c r="M100" s="70"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" ht="21" customHeight="1" spans="1:13">
       <c r="A101" s="70"/>
-      <c r="B101" s="70"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
+      <c r="B101" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
       <c r="I101" s="70"/>
       <c r="J101" s="70"/>
       <c r="K101" s="70"/>
@@ -4505,15 +4555,15 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="70"/>
-      <c r="B102" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
+      <c r="B102" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
       <c r="I102" s="70"/>
       <c r="J102" s="70"/>
       <c r="K102" s="70"/>
@@ -4521,9 +4571,11 @@
       <c r="M102" s="70"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="73"/>
-      <c r="B103" s="73"/>
+      <c r="A103" s="70"/>
+      <c r="B103" s="70"/>
       <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
       <c r="F103" s="70"/>
       <c r="G103" s="70"/>
       <c r="H103" s="70"/>
@@ -4534,12 +4586,16 @@
       <c r="M103" s="70"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="73"/>
-      <c r="B104" s="73"/>
-      <c r="C104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
+      <c r="A104" s="70"/>
+      <c r="B104" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="67"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
       <c r="I104" s="70"/>
       <c r="J104" s="70"/>
       <c r="K104" s="70"/>
@@ -4547,8 +4603,9 @@
       <c r="M104" s="70"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="69"/>
-      <c r="B105" s="69"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="70"/>
       <c r="F105" s="70"/>
       <c r="G105" s="70"/>
       <c r="H105" s="70"/>
@@ -4559,8 +4616,9 @@
       <c r="M105" s="70"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="69"/>
-      <c r="B106" s="69"/>
+      <c r="A106" s="73"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="70"/>
       <c r="F106" s="70"/>
       <c r="G106" s="70"/>
       <c r="H106" s="70"/>
@@ -4570,11 +4628,9 @@
       <c r="L106" s="70"/>
       <c r="M106" s="70"/>
     </row>
-    <row r="107" ht="28" customHeight="1" spans="1:13">
-      <c r="A107" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="B107" s="72"/>
+    <row r="107" spans="1:13">
+      <c r="A107" s="69"/>
+      <c r="B107" s="69"/>
       <c r="F107" s="70"/>
       <c r="G107" s="70"/>
       <c r="H107" s="70"/>
@@ -4596,15 +4652,14 @@
       <c r="L108" s="70"/>
       <c r="M108" s="70"/>
     </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="69"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="40"/>
-      <c r="H109" s="40"/>
+    <row r="109" ht="28" customHeight="1" spans="1:13">
+      <c r="A109" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="72"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
       <c r="I109" s="70"/>
       <c r="J109" s="70"/>
       <c r="K109" s="70"/>
@@ -4613,15 +4668,10 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="69"/>
-      <c r="B110" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="40"/>
-      <c r="H110" s="40"/>
+      <c r="B110" s="69"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
       <c r="I110" s="70"/>
       <c r="J110" s="70"/>
       <c r="K110" s="70"/>
@@ -4630,15 +4680,13 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="69"/>
-      <c r="B111" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
       <c r="I111" s="70"/>
       <c r="J111" s="70"/>
       <c r="K111" s="70"/>
@@ -4647,15 +4695,15 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="69"/>
-      <c r="B112" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
-      <c r="E112" s="40"/>
-      <c r="F112" s="40"/>
-      <c r="G112" s="40"/>
-      <c r="H112" s="40"/>
+      <c r="B112" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
       <c r="I112" s="70"/>
       <c r="J112" s="70"/>
       <c r="K112" s="70"/>
@@ -4664,30 +4712,32 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="69"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="40"/>
-      <c r="F113" s="40"/>
-      <c r="G113" s="40"/>
-      <c r="H113" s="40"/>
+      <c r="B113" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
       <c r="I113" s="70"/>
       <c r="J113" s="70"/>
       <c r="K113" s="70"/>
       <c r="L113" s="70"/>
       <c r="M113" s="70"/>
     </row>
-    <row r="114" ht="18.75" spans="1:13">
+    <row r="114" spans="1:13">
       <c r="A114" s="69"/>
-      <c r="B114" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C114" s="21"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="40"/>
-      <c r="F114" s="40"/>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40"/>
+      <c r="B114" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
       <c r="I114" s="70"/>
       <c r="J114" s="70"/>
       <c r="K114" s="70"/>
@@ -4696,32 +4746,30 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="69"/>
-      <c r="B115" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
-      <c r="E115" s="40"/>
-      <c r="F115" s="40"/>
-      <c r="G115" s="40"/>
-      <c r="H115" s="40"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="67"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="67"/>
+      <c r="H115" s="67"/>
       <c r="I115" s="70"/>
       <c r="J115" s="70"/>
       <c r="K115" s="70"/>
       <c r="L115" s="70"/>
       <c r="M115" s="70"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" ht="18.75" spans="1:13">
       <c r="A116" s="69"/>
-      <c r="B116" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="40"/>
-      <c r="G116" s="40"/>
-      <c r="H116" s="40"/>
+      <c r="B116" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
       <c r="I116" s="70"/>
       <c r="J116" s="70"/>
       <c r="K116" s="70"/>
@@ -4730,15 +4778,15 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="69"/>
-      <c r="B117" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C117" s="40"/>
-      <c r="D117" s="40"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="40"/>
-      <c r="G117" s="40"/>
-      <c r="H117" s="40"/>
+      <c r="B117" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
       <c r="I117" s="70"/>
       <c r="J117" s="70"/>
       <c r="K117" s="70"/>
@@ -4747,13 +4795,15 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="69"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="40"/>
-      <c r="E118" s="40"/>
-      <c r="F118" s="40"/>
-      <c r="G118" s="40"/>
-      <c r="H118" s="40"/>
+      <c r="B118" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C118" s="67"/>
+      <c r="D118" s="67"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="67"/>
       <c r="I118" s="70"/>
       <c r="J118" s="70"/>
       <c r="K118" s="70"/>
@@ -4762,13 +4812,15 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="69"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="40"/>
-      <c r="E119" s="40"/>
-      <c r="F119" s="40"/>
-      <c r="G119" s="40"/>
-      <c r="H119" s="40"/>
+      <c r="B119" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" s="67"/>
+      <c r="D119" s="67"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
       <c r="I119" s="70"/>
       <c r="J119" s="70"/>
       <c r="K119" s="70"/>
@@ -4777,13 +4829,13 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="69"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="40"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="40"/>
-      <c r="H120" s="40"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="67"/>
+      <c r="H120" s="67"/>
       <c r="I120" s="70"/>
       <c r="J120" s="70"/>
       <c r="K120" s="70"/>
@@ -4792,30 +4844,28 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="69"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="40"/>
-      <c r="D121" s="40"/>
-      <c r="E121" s="40"/>
-      <c r="F121" s="40"/>
-      <c r="G121" s="40"/>
-      <c r="H121" s="40"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
       <c r="I121" s="70"/>
       <c r="J121" s="70"/>
       <c r="K121" s="70"/>
       <c r="L121" s="70"/>
       <c r="M121" s="70"/>
     </row>
-    <row r="122" ht="18.75" spans="1:13">
-      <c r="A122" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="B122" s="72"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="40"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="40"/>
-      <c r="G122" s="40"/>
-      <c r="H122" s="40"/>
+    <row r="122" spans="1:13">
+      <c r="A122" s="69"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
       <c r="I122" s="70"/>
       <c r="J122" s="70"/>
       <c r="K122" s="70"/>
@@ -4824,28 +4874,30 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="69"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="40"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="40"/>
-      <c r="G123" s="40"/>
-      <c r="H123" s="40"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
       <c r="I123" s="70"/>
       <c r="J123" s="70"/>
       <c r="K123" s="70"/>
       <c r="L123" s="70"/>
       <c r="M123" s="70"/>
     </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="69"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="40"/>
-      <c r="G124" s="40"/>
-      <c r="H124" s="40"/>
+    <row r="124" ht="18.75" spans="1:13">
+      <c r="A124" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124" s="72"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
       <c r="I124" s="70"/>
       <c r="J124" s="70"/>
       <c r="K124" s="70"/>
@@ -4854,15 +4906,13 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="69"/>
-      <c r="B125" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40"/>
-      <c r="H125" s="40"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
       <c r="I125" s="70"/>
       <c r="J125" s="70"/>
       <c r="K125" s="70"/>
@@ -4871,15 +4921,13 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="69"/>
-      <c r="B126" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40"/>
-      <c r="F126" s="40"/>
-      <c r="G126" s="40"/>
-      <c r="H126" s="40"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
       <c r="I126" s="70"/>
       <c r="J126" s="70"/>
       <c r="K126" s="70"/>
@@ -4888,15 +4936,15 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="69"/>
-      <c r="B127" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="C127" s="40"/>
-      <c r="D127" s="40"/>
-      <c r="E127" s="40"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="40"/>
-      <c r="H127" s="40"/>
+      <c r="B127" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
       <c r="I127" s="70"/>
       <c r="J127" s="70"/>
       <c r="K127" s="70"/>
@@ -4905,15 +4953,15 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="69"/>
-      <c r="B128" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="C128" s="40"/>
-      <c r="D128" s="40"/>
-      <c r="E128" s="40"/>
-      <c r="F128" s="40"/>
-      <c r="G128" s="40"/>
-      <c r="H128" s="40"/>
+      <c r="B128" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C128" s="67"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
       <c r="I128" s="70"/>
       <c r="J128" s="70"/>
       <c r="K128" s="70"/>
@@ -4922,15 +4970,15 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="69"/>
-      <c r="B129" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="40"/>
-      <c r="F129" s="40"/>
-      <c r="G129" s="40"/>
-      <c r="H129" s="40"/>
+      <c r="B129" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
       <c r="I129" s="70"/>
       <c r="J129" s="70"/>
       <c r="K129" s="70"/>
@@ -4939,13 +4987,15 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="69"/>
-      <c r="B130" s="40"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="40"/>
-      <c r="G130" s="40"/>
-      <c r="H130" s="40"/>
+      <c r="B130" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" s="67"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
       <c r="I130" s="70"/>
       <c r="J130" s="70"/>
       <c r="K130" s="70"/>
@@ -4954,13 +5004,15 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="69"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="40"/>
-      <c r="E131" s="40"/>
-      <c r="F131" s="40"/>
-      <c r="G131" s="40"/>
-      <c r="H131" s="40"/>
+      <c r="B131" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C131" s="67"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
       <c r="I131" s="70"/>
       <c r="J131" s="70"/>
       <c r="K131" s="70"/>
@@ -4969,13 +5021,13 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="69"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="40"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="40"/>
-      <c r="F132" s="40"/>
-      <c r="G132" s="40"/>
-      <c r="H132" s="40"/>
+      <c r="B132" s="67"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
       <c r="I132" s="70"/>
       <c r="J132" s="70"/>
       <c r="K132" s="70"/>
@@ -4984,13 +5036,13 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="69"/>
-      <c r="B133" s="40"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="40"/>
-      <c r="E133" s="40"/>
-      <c r="F133" s="40"/>
-      <c r="G133" s="40"/>
-      <c r="H133" s="40"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
+      <c r="G133" s="67"/>
+      <c r="H133" s="67"/>
       <c r="I133" s="70"/>
       <c r="J133" s="70"/>
       <c r="K133" s="70"/>
@@ -4999,13 +5051,13 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="69"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="40"/>
-      <c r="E134" s="40"/>
-      <c r="F134" s="40"/>
-      <c r="G134" s="40"/>
-      <c r="H134" s="40"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="67"/>
       <c r="I134" s="70"/>
       <c r="J134" s="70"/>
       <c r="K134" s="70"/>
@@ -5014,13 +5066,13 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="69"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="40"/>
-      <c r="F135" s="40"/>
-      <c r="G135" s="40"/>
-      <c r="H135" s="40"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="67"/>
+      <c r="H135" s="67"/>
       <c r="I135" s="70"/>
       <c r="J135" s="70"/>
       <c r="K135" s="70"/>
@@ -5029,13 +5081,13 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="69"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="40"/>
-      <c r="F136" s="40"/>
-      <c r="G136" s="40"/>
-      <c r="H136" s="40"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="67"/>
+      <c r="G136" s="67"/>
+      <c r="H136" s="67"/>
       <c r="I136" s="70"/>
       <c r="J136" s="70"/>
       <c r="K136" s="70"/>
@@ -5044,13 +5096,13 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="69"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="40"/>
-      <c r="F137" s="40"/>
-      <c r="G137" s="40"/>
-      <c r="H137" s="40"/>
+      <c r="B137" s="67"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="67"/>
+      <c r="H137" s="67"/>
       <c r="I137" s="70"/>
       <c r="J137" s="70"/>
       <c r="K137" s="70"/>
@@ -5059,13 +5111,13 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="69"/>
-      <c r="B138" s="40"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="40"/>
-      <c r="E138" s="40"/>
-      <c r="F138" s="40"/>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="67"/>
+      <c r="H138" s="67"/>
       <c r="I138" s="70"/>
       <c r="J138" s="70"/>
       <c r="K138" s="70"/>
@@ -5074,13 +5126,13 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="69"/>
-      <c r="B139" s="40"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="40"/>
-      <c r="F139" s="40"/>
-      <c r="G139" s="40"/>
-      <c r="H139" s="40"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
       <c r="I139" s="70"/>
       <c r="J139" s="70"/>
       <c r="K139" s="70"/>
@@ -5089,13 +5141,13 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="69"/>
-      <c r="B140" s="40"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="40"/>
-      <c r="E140" s="40"/>
-      <c r="F140" s="40"/>
-      <c r="G140" s="40"/>
-      <c r="H140" s="40"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
+      <c r="G140" s="67"/>
+      <c r="H140" s="67"/>
       <c r="I140" s="70"/>
       <c r="J140" s="70"/>
       <c r="K140" s="70"/>
@@ -5104,13 +5156,13 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="69"/>
-      <c r="B141" s="40"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="40"/>
-      <c r="E141" s="40"/>
-      <c r="F141" s="40"/>
-      <c r="G141" s="40"/>
-      <c r="H141" s="40"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
       <c r="I141" s="70"/>
       <c r="J141" s="70"/>
       <c r="K141" s="70"/>
@@ -5119,13 +5171,13 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="69"/>
-      <c r="B142" s="40"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="40"/>
-      <c r="F142" s="40"/>
-      <c r="G142" s="40"/>
-      <c r="H142" s="40"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
       <c r="I142" s="70"/>
       <c r="J142" s="70"/>
       <c r="K142" s="70"/>
@@ -5134,13 +5186,13 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="69"/>
-      <c r="B143" s="40"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="40"/>
-      <c r="F143" s="40"/>
-      <c r="G143" s="40"/>
-      <c r="H143" s="40"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
       <c r="I143" s="70"/>
       <c r="J143" s="70"/>
       <c r="K143" s="70"/>
@@ -5149,13 +5201,13 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="69"/>
-      <c r="B144" s="40"/>
-      <c r="C144" s="40"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="40"/>
-      <c r="F144" s="40"/>
-      <c r="G144" s="40"/>
-      <c r="H144" s="40"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="67"/>
+      <c r="F144" s="67"/>
+      <c r="G144" s="67"/>
+      <c r="H144" s="67"/>
       <c r="I144" s="70"/>
       <c r="J144" s="70"/>
       <c r="K144" s="70"/>
@@ -5164,13 +5216,13 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="69"/>
-      <c r="B145" s="40"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="40"/>
-      <c r="E145" s="40"/>
-      <c r="F145" s="40"/>
-      <c r="G145" s="40"/>
-      <c r="H145" s="40"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="67"/>
+      <c r="E145" s="67"/>
+      <c r="F145" s="67"/>
+      <c r="G145" s="67"/>
+      <c r="H145" s="67"/>
       <c r="I145" s="70"/>
       <c r="J145" s="70"/>
       <c r="K145" s="70"/>
@@ -5179,13 +5231,13 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="69"/>
-      <c r="B146" s="40"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="40"/>
-      <c r="E146" s="40"/>
-      <c r="F146" s="40"/>
-      <c r="G146" s="40"/>
-      <c r="H146" s="40"/>
+      <c r="B146" s="67"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="67"/>
+      <c r="H146" s="67"/>
       <c r="I146" s="70"/>
       <c r="J146" s="70"/>
       <c r="K146" s="70"/>
@@ -5194,13 +5246,13 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="69"/>
-      <c r="B147" s="40"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="40"/>
-      <c r="F147" s="40"/>
-      <c r="G147" s="40"/>
-      <c r="H147" s="40"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="67"/>
+      <c r="G147" s="67"/>
+      <c r="H147" s="67"/>
       <c r="I147" s="70"/>
       <c r="J147" s="70"/>
       <c r="K147" s="70"/>
@@ -5209,13 +5261,13 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="69"/>
-      <c r="B148" s="40"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="40"/>
-      <c r="E148" s="40"/>
-      <c r="F148" s="40"/>
-      <c r="G148" s="40"/>
-      <c r="H148" s="40"/>
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="67"/>
+      <c r="H148" s="67"/>
       <c r="I148" s="70"/>
       <c r="J148" s="70"/>
       <c r="K148" s="70"/>
@@ -5224,10 +5276,13 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="69"/>
-      <c r="B149" s="69"/>
-      <c r="F149" s="70"/>
-      <c r="G149" s="70"/>
-      <c r="H149" s="70"/>
+      <c r="B149" s="67"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="67"/>
+      <c r="G149" s="67"/>
+      <c r="H149" s="67"/>
       <c r="I149" s="70"/>
       <c r="J149" s="70"/>
       <c r="K149" s="70"/>
@@ -5236,47 +5291,43 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="69"/>
-      <c r="B150" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="C150" s="74"/>
-      <c r="F150" s="70"/>
-      <c r="G150" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="H150" s="74"/>
-      <c r="I150" s="74"/>
+      <c r="B150" s="67"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+      <c r="I150" s="70"/>
+      <c r="J150" s="70"/>
       <c r="K150" s="70"/>
       <c r="L150" s="70"/>
       <c r="M150" s="70"/>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="69"/>
-      <c r="B151" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C151" t="s">
-        <v>82</v>
-      </c>
+      <c r="B151" s="69"/>
       <c r="F151" s="70"/>
-      <c r="G151" t="s">
-        <v>198</v>
-      </c>
+      <c r="G151" s="70"/>
+      <c r="H151" s="70"/>
+      <c r="I151" s="70"/>
+      <c r="J151" s="70"/>
       <c r="K151" s="70"/>
       <c r="L151" s="70"/>
       <c r="M151" s="70"/>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="69"/>
-      <c r="B152" s="69" t="s">
+      <c r="B152" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="74"/>
+      <c r="F152" s="70"/>
+      <c r="G152" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="G152" t="s">
-        <v>201</v>
-      </c>
+      <c r="H152" s="74"/>
+      <c r="I152" s="74"/>
       <c r="K152" s="70"/>
       <c r="L152" s="70"/>
       <c r="M152" s="70"/>
@@ -5284,13 +5335,14 @@
     <row r="153" spans="1:13">
       <c r="A153" s="69"/>
       <c r="B153" s="69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C153" t="s">
         <v>82</v>
       </c>
+      <c r="F153" s="70"/>
       <c r="G153" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K153" s="70"/>
       <c r="L153" s="70"/>
@@ -5299,16 +5351,13 @@
     <row r="154" spans="1:13">
       <c r="A154" s="69"/>
       <c r="B154" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" t="s">
         <v>204</v>
-      </c>
-      <c r="C154" t="s">
-        <v>82</v>
       </c>
       <c r="G154" t="s">
         <v>205</v>
-      </c>
-      <c r="I154" t="s">
-        <v>206</v>
       </c>
       <c r="K154" s="70"/>
       <c r="L154" s="70"/>
@@ -5317,130 +5366,135 @@
     <row r="155" spans="1:13">
       <c r="A155" s="69"/>
       <c r="B155" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C155" t="s">
         <v>82</v>
       </c>
       <c r="G155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K155" s="70"/>
       <c r="L155" s="70"/>
       <c r="M155" s="70"/>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156"/>
-      <c r="B156" s="74" t="s">
+      <c r="A156" s="69"/>
+      <c r="B156" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C156" t="s">
+        <v>82</v>
+      </c>
+      <c r="G156" t="s">
         <v>209</v>
       </c>
-      <c r="C156" s="74"/>
-      <c r="G156" t="s">
+      <c r="I156" t="s">
         <v>210</v>
-      </c>
-      <c r="I156" t="s">
-        <v>206</v>
       </c>
       <c r="K156" s="70"/>
       <c r="L156" s="70"/>
       <c r="M156" s="70"/>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157"/>
-      <c r="B157" s="3" t="s">
+      <c r="A157" s="69"/>
+      <c r="B157" s="69" t="s">
         <v>211</v>
       </c>
       <c r="C157" t="s">
+        <v>82</v>
+      </c>
+      <c r="G157" t="s">
         <v>212</v>
       </c>
-      <c r="G157" t="s">
-        <v>213</v>
-      </c>
-      <c r="K157" s="73"/>
-      <c r="L157" s="73"/>
+      <c r="K157" s="70"/>
+      <c r="L157" s="70"/>
       <c r="M157" s="70"/>
     </row>
     <row r="158" spans="1:13">
       <c r="A158"/>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" s="74"/>
+      <c r="G158" t="s">
         <v>214</v>
       </c>
-      <c r="C158" t="s">
-        <v>215</v>
-      </c>
-      <c r="K158" s="73"/>
-      <c r="L158" s="73"/>
+      <c r="I158" t="s">
+        <v>210</v>
+      </c>
+      <c r="K158" s="70"/>
+      <c r="L158" s="70"/>
       <c r="M158" s="70"/>
     </row>
     <row r="159" spans="1:13">
       <c r="A159"/>
       <c r="B159" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C159" t="s">
         <v>216</v>
       </c>
-      <c r="C159" t="s">
+      <c r="G159" t="s">
         <v>217</v>
-      </c>
-      <c r="D159" t="s">
-        <v>218</v>
       </c>
       <c r="K159" s="73"/>
       <c r="L159" s="73"/>
       <c r="M159" s="70"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:13">
       <c r="A160"/>
       <c r="B160" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C160" t="s">
         <v>219</v>
       </c>
-      <c r="C160" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="K160" s="73"/>
+      <c r="L160" s="73"/>
+      <c r="M160" s="70"/>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161"/>
       <c r="B161" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C161" t="s">
         <v>221</v>
       </c>
-      <c r="C161" t="s">
-        <v>217</v>
-      </c>
+      <c r="D161" t="s">
+        <v>222</v>
+      </c>
+      <c r="K161" s="73"/>
+      <c r="L161" s="73"/>
+      <c r="M161" s="70"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162"/>
       <c r="B162" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C162" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163"/>
       <c r="B163" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C163" t="s">
-        <v>224</v>
-      </c>
-      <c r="F163" s="70"/>
-      <c r="G163" s="70"/>
-      <c r="H163" s="69"/>
-      <c r="I163" s="69"/>
-      <c r="J163" s="69"/>
-    </row>
-    <row r="164" spans="1:10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164"/>
       <c r="B164" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C164" t="s">
-        <v>226</v>
-      </c>
-      <c r="F164" s="70"/>
-      <c r="G164" s="70"/>
-      <c r="H164" s="69"/>
-      <c r="I164" s="69"/>
-      <c r="J164" s="69"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165"/>
@@ -5484,16 +5538,13 @@
       <c r="I167" s="69"/>
       <c r="J167" s="69"/>
     </row>
-    <row r="168" ht="40.5" spans="1:10">
+    <row r="168" spans="1:10">
       <c r="A168"/>
       <c r="B168" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" t="s">
         <v>234</v>
-      </c>
-      <c r="D168" t="s">
-        <v>235</v>
       </c>
       <c r="F168" s="70"/>
       <c r="G168" s="70"/>
@@ -5503,46 +5554,59 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169"/>
-      <c r="B169" s="3"/>
+      <c r="B169" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C169" t="s">
+        <v>236</v>
+      </c>
       <c r="F169" s="70"/>
       <c r="G169" s="70"/>
       <c r="H169" s="69"/>
       <c r="I169" s="69"/>
       <c r="J169" s="69"/>
     </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="70"/>
-      <c r="B170" s="70"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="70"/>
-      <c r="E170" s="70"/>
+    <row r="170" ht="40.5" spans="1:10">
+      <c r="A170"/>
+      <c r="B170" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D170" t="s">
+        <v>239</v>
+      </c>
       <c r="F170" s="70"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="70"/>
-      <c r="B171" s="70"/>
-      <c r="C171" s="70"/>
-      <c r="D171" s="70"/>
-      <c r="E171" s="70"/>
+      <c r="G170" s="70"/>
+      <c r="H170" s="69"/>
+      <c r="I170" s="69"/>
+      <c r="J170" s="69"/>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171"/>
+      <c r="B171" s="3"/>
       <c r="F171" s="70"/>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="G171" s="70"/>
+      <c r="H171" s="69"/>
+      <c r="I171" s="69"/>
+      <c r="J171" s="69"/>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="70"/>
       <c r="B172" s="70"/>
       <c r="C172" s="70"/>
       <c r="D172" s="70"/>
       <c r="E172" s="70"/>
       <c r="F172" s="70"/>
-      <c r="L172"/>
-    </row>
-    <row r="173" spans="1:12">
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="70"/>
       <c r="B173" s="70"/>
       <c r="C173" s="70"/>
       <c r="D173" s="70"/>
       <c r="E173" s="70"/>
       <c r="F173" s="70"/>
-      <c r="L173"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="70"/>
@@ -5607,8 +5671,26 @@
       <c r="F180" s="70"/>
       <c r="L180"/>
     </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="70"/>
+      <c r="B181" s="70"/>
+      <c r="C181" s="70"/>
+      <c r="D181" s="70"/>
+      <c r="E181" s="70"/>
+      <c r="F181" s="70"/>
+      <c r="L181"/>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="70"/>
+      <c r="B182" s="70"/>
+      <c r="C182" s="70"/>
+      <c r="D182" s="70"/>
+      <c r="E182" s="70"/>
+      <c r="F182" s="70"/>
+      <c r="L182"/>
+    </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="92">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="N6:R6"/>
@@ -5631,17 +5713,15 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A42:J42"/>
     <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O43:R43"/>
     <mergeCell ref="I44:J44"/>
-    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="K44:O44"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="L45:M45"/>
+    <mergeCell ref="O45:R45"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="I47:J47"/>
@@ -5649,41 +5729,43 @@
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:M49"/>
     <mergeCell ref="I50:J50"/>
+    <mergeCell ref="L50:M50"/>
     <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
     <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="A84:B84"/>
     <mergeCell ref="B87:H87"/>
     <mergeCell ref="B88:H88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A98:B98"/>
     <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B101:H101"/>
     <mergeCell ref="B102:H102"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="A109:B109"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="B112:H112"/>
     <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B114:H114"/>
     <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B116:C116"/>
     <mergeCell ref="B117:H117"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="B125:H125"/>
-    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="A124:B124"/>
     <mergeCell ref="B127:H127"/>
     <mergeCell ref="B128:H128"/>
     <mergeCell ref="B129:H129"/>
@@ -5694,10 +5776,12 @@
     <mergeCell ref="B134:H134"/>
     <mergeCell ref="B135:H135"/>
     <mergeCell ref="B136:H136"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="K31:K37"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="K31:K39"/>
     <mergeCell ref="AE5:AV7"/>
   </mergeCells>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
